--- a/USA COVID-19 Infection Projections.xlsx
+++ b/USA COVID-19 Infection Projections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\Aus COVID-19 Projections\Aus-COVID-19-Projections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B60C70-2C0A-410B-9CC0-B33A3CC089F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3A9DFB-679D-4169-A88E-FE810E8DF28E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
+    <workbookView xWindow="105" yWindow="0" windowWidth="37605" windowHeight="21000" activeTab="1" xr2:uid="{744C986A-0D24-487A-A5C2-8E2494A78887}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="575">
   <si>
     <t>By Age</t>
   </si>
@@ -1543,9 +1543,6 @@
     <t>Daily COVID-19 Deaths by Date</t>
   </si>
   <si>
-    <t>% US Population at time</t>
-  </si>
-  <si>
     <t>Believed to have originated in Mexico</t>
   </si>
   <si>
@@ -1763,6 +1760,9 @@
   </si>
   <si>
     <t>A judge denied an emergency motion to stop the Tulsa rally as Oklahoma records its highest new coronavirus case count to date on Monday, and will now head to the Supreme Court.  While Pence said Monday Oklahoma had "flattened the curve" and that "the number of cases in Oklahoma" had "declined precipitously," the daily number of coronavirus cases statewide have actually increased over the last week -- even as the number of tests conducted each day has declined slightly</t>
+  </si>
+  <si>
+    <t>The FDA has revoked its emergency use authorization for the drugs hydroxychloroquine and chloroquine for the treatment of Covid-19.  "It is no longer reasonable to believe that oral formulations of HCQ and CQ may be effective in treating COVID-19, nor is it reasonable to believe that the known and potential benefits of these products outweigh their known and potential risks. Accordingly, FDA revokes the EUA for emergency use of HCQ and CQ to treat COVID-19. As of the date of this letter, the oral formulations of HCQ and CQ are no longer authorized by FDA to treat COVID-19," FDA chief scientist Denise Hinton wrote in a letter to Gary Disbrow of the Biomedical Advanced Research and Development Authority (BARDA) on Monday.  The WHO is still reviewing is use of hydroxychloroquine in its multi-country clinical study of several potential COVID-19 treatment options.</t>
   </si>
 </sst>
 </file>
@@ -3058,46 +3058,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.867591319446</c:v>
+                  <c:v>43960.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.867591319446</c:v>
+                  <c:v>43963.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.867591319446</c:v>
+                  <c:v>43966.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.867591319446</c:v>
+                  <c:v>43969.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.867591319446</c:v>
+                  <c:v>43972.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.867591319446</c:v>
+                  <c:v>43975.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.867591319446</c:v>
+                  <c:v>43978.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.867591319446</c:v>
+                  <c:v>43981.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.867591319446</c:v>
+                  <c:v>43984.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.867591319446</c:v>
+                  <c:v>43987.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.867591319446</c:v>
+                  <c:v>43990.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.867591319446</c:v>
+                  <c:v>43993.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.867591319446</c:v>
+                  <c:v>43996.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.867591319446</c:v>
+                  <c:v>43999.995463541665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3207,46 +3207,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.867591319446</c:v>
+                  <c:v>43960.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.867591319446</c:v>
+                  <c:v>43963.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.867591319446</c:v>
+                  <c:v>43966.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.867591319446</c:v>
+                  <c:v>43969.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.867591319446</c:v>
+                  <c:v>43972.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.867591319446</c:v>
+                  <c:v>43975.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.867591319446</c:v>
+                  <c:v>43978.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.867591319446</c:v>
+                  <c:v>43981.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.867591319446</c:v>
+                  <c:v>43984.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.867591319446</c:v>
+                  <c:v>43987.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.867591319446</c:v>
+                  <c:v>43990.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.867591319446</c:v>
+                  <c:v>43993.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.867591319446</c:v>
+                  <c:v>43996.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.867591319446</c:v>
+                  <c:v>43999.995463541665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3356,46 +3356,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.867591319446</c:v>
+                  <c:v>43960.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.867591319446</c:v>
+                  <c:v>43963.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.867591319446</c:v>
+                  <c:v>43966.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.867591319446</c:v>
+                  <c:v>43969.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.867591319446</c:v>
+                  <c:v>43972.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.867591319446</c:v>
+                  <c:v>43975.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.867591319446</c:v>
+                  <c:v>43978.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.867591319446</c:v>
+                  <c:v>43981.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.867591319446</c:v>
+                  <c:v>43984.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.867591319446</c:v>
+                  <c:v>43987.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.867591319446</c:v>
+                  <c:v>43990.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.867591319446</c:v>
+                  <c:v>43993.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.867591319446</c:v>
+                  <c:v>43996.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.867591319446</c:v>
+                  <c:v>43999.995463541665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4837,7 +4837,7 @@
                   <c:v>114148</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="#,##0">
-                  <c:v>119133</c:v>
+                  <c:v>119952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15606,7 +15606,7 @@
                   <c:v>114148</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="#,##0">
-                  <c:v>119133</c:v>
+                  <c:v>119952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15935,46 +15935,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.867591319446</c:v>
+                  <c:v>43960.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.867591319446</c:v>
+                  <c:v>43963.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.867591319446</c:v>
+                  <c:v>43966.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.867591319446</c:v>
+                  <c:v>43969.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.867591319446</c:v>
+                  <c:v>43972.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.867591319446</c:v>
+                  <c:v>43975.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.867591319446</c:v>
+                  <c:v>43978.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.867591319446</c:v>
+                  <c:v>43981.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.867591319446</c:v>
+                  <c:v>43984.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.867591319446</c:v>
+                  <c:v>43987.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.867591319446</c:v>
+                  <c:v>43990.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.867591319446</c:v>
+                  <c:v>43993.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.867591319446</c:v>
+                  <c:v>43996.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.867591319446</c:v>
+                  <c:v>43999.995463541665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16075,46 +16075,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.867591319446</c:v>
+                  <c:v>43960.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.867591319446</c:v>
+                  <c:v>43963.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.867591319446</c:v>
+                  <c:v>43966.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.867591319446</c:v>
+                  <c:v>43969.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.867591319446</c:v>
+                  <c:v>43972.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.867591319446</c:v>
+                  <c:v>43975.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.867591319446</c:v>
+                  <c:v>43978.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.867591319446</c:v>
+                  <c:v>43981.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.867591319446</c:v>
+                  <c:v>43984.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.867591319446</c:v>
+                  <c:v>43987.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.867591319446</c:v>
+                  <c:v>43990.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.867591319446</c:v>
+                  <c:v>43993.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.867591319446</c:v>
+                  <c:v>43996.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.867591319446</c:v>
+                  <c:v>43999.995463541665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16218,46 +16218,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.867591319446</c:v>
+                  <c:v>43960.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.867591319446</c:v>
+                  <c:v>43963.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.867591319446</c:v>
+                  <c:v>43966.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.867591319446</c:v>
+                  <c:v>43969.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.867591319446</c:v>
+                  <c:v>43972.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.867591319446</c:v>
+                  <c:v>43975.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.867591319446</c:v>
+                  <c:v>43978.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.867591319446</c:v>
+                  <c:v>43981.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.867591319446</c:v>
+                  <c:v>43984.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.867591319446</c:v>
+                  <c:v>43987.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.867591319446</c:v>
+                  <c:v>43990.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.867591319446</c:v>
+                  <c:v>43993.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.867591319446</c:v>
+                  <c:v>43996.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.867591319446</c:v>
+                  <c:v>43999.995463541665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16355,46 +16355,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.867591319446</c:v>
+                  <c:v>43960.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.867591319446</c:v>
+                  <c:v>43963.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.867591319446</c:v>
+                  <c:v>43966.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.867591319446</c:v>
+                  <c:v>43969.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.867591319446</c:v>
+                  <c:v>43972.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.867591319446</c:v>
+                  <c:v>43975.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.867591319446</c:v>
+                  <c:v>43978.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.867591319446</c:v>
+                  <c:v>43981.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.867591319446</c:v>
+                  <c:v>43984.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.867591319446</c:v>
+                  <c:v>43987.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.867591319446</c:v>
+                  <c:v>43990.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.867591319446</c:v>
+                  <c:v>43993.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.867591319446</c:v>
+                  <c:v>43996.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.867591319446</c:v>
+                  <c:v>43999.995463541665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16762,46 +16762,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.867591319446</c:v>
+                  <c:v>43960.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.867591319446</c:v>
+                  <c:v>43963.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.867591319446</c:v>
+                  <c:v>43966.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.867591319446</c:v>
+                  <c:v>43969.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.867591319446</c:v>
+                  <c:v>43972.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.867591319446</c:v>
+                  <c:v>43975.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.867591319446</c:v>
+                  <c:v>43978.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.867591319446</c:v>
+                  <c:v>43981.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.867591319446</c:v>
+                  <c:v>43984.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.867591319446</c:v>
+                  <c:v>43987.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.867591319446</c:v>
+                  <c:v>43990.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.867591319446</c:v>
+                  <c:v>43993.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.867591319446</c:v>
+                  <c:v>43996.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.867591319446</c:v>
+                  <c:v>43999.995463541665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16911,46 +16911,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.867591319446</c:v>
+                  <c:v>43960.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.867591319446</c:v>
+                  <c:v>43963.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.867591319446</c:v>
+                  <c:v>43966.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.867591319446</c:v>
+                  <c:v>43969.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.867591319446</c:v>
+                  <c:v>43972.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.867591319446</c:v>
+                  <c:v>43975.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.867591319446</c:v>
+                  <c:v>43978.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.867591319446</c:v>
+                  <c:v>43981.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.867591319446</c:v>
+                  <c:v>43984.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.867591319446</c:v>
+                  <c:v>43987.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.867591319446</c:v>
+                  <c:v>43990.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.867591319446</c:v>
+                  <c:v>43993.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.867591319446</c:v>
+                  <c:v>43996.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.867591319446</c:v>
+                  <c:v>43999.995463541665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17060,46 +17060,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.867591319446</c:v>
+                  <c:v>43960.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.867591319446</c:v>
+                  <c:v>43963.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.867591319446</c:v>
+                  <c:v>43966.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.867591319446</c:v>
+                  <c:v>43969.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.867591319446</c:v>
+                  <c:v>43972.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.867591319446</c:v>
+                  <c:v>43975.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.867591319446</c:v>
+                  <c:v>43978.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.867591319446</c:v>
+                  <c:v>43981.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.867591319446</c:v>
+                  <c:v>43984.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.867591319446</c:v>
+                  <c:v>43987.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.867591319446</c:v>
+                  <c:v>43990.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.867591319446</c:v>
+                  <c:v>43993.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.867591319446</c:v>
+                  <c:v>43996.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.867591319446</c:v>
+                  <c:v>43999.995463541665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17477,46 +17477,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.867591319446</c:v>
+                  <c:v>43960.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.867591319446</c:v>
+                  <c:v>43963.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.867591319446</c:v>
+                  <c:v>43966.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.867591319446</c:v>
+                  <c:v>43969.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.867591319446</c:v>
+                  <c:v>43972.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.867591319446</c:v>
+                  <c:v>43975.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.867591319446</c:v>
+                  <c:v>43978.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.867591319446</c:v>
+                  <c:v>43981.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.867591319446</c:v>
+                  <c:v>43984.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.867591319446</c:v>
+                  <c:v>43987.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.867591319446</c:v>
+                  <c:v>43990.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.867591319446</c:v>
+                  <c:v>43993.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.867591319446</c:v>
+                  <c:v>43996.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.867591319446</c:v>
+                  <c:v>43999.995463541665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17617,46 +17617,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.867591319446</c:v>
+                  <c:v>43960.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.867591319446</c:v>
+                  <c:v>43963.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.867591319446</c:v>
+                  <c:v>43966.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.867591319446</c:v>
+                  <c:v>43969.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.867591319446</c:v>
+                  <c:v>43972.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.867591319446</c:v>
+                  <c:v>43975.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.867591319446</c:v>
+                  <c:v>43978.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.867591319446</c:v>
+                  <c:v>43981.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.867591319446</c:v>
+                  <c:v>43984.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.867591319446</c:v>
+                  <c:v>43987.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.867591319446</c:v>
+                  <c:v>43990.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.867591319446</c:v>
+                  <c:v>43993.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.867591319446</c:v>
+                  <c:v>43996.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.867591319446</c:v>
+                  <c:v>43999.995463541665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17760,46 +17760,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.867591319446</c:v>
+                  <c:v>43960.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.867591319446</c:v>
+                  <c:v>43963.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.867591319446</c:v>
+                  <c:v>43966.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.867591319446</c:v>
+                  <c:v>43969.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.867591319446</c:v>
+                  <c:v>43972.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.867591319446</c:v>
+                  <c:v>43975.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.867591319446</c:v>
+                  <c:v>43978.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.867591319446</c:v>
+                  <c:v>43981.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.867591319446</c:v>
+                  <c:v>43984.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.867591319446</c:v>
+                  <c:v>43987.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.867591319446</c:v>
+                  <c:v>43990.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.867591319446</c:v>
+                  <c:v>43993.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.867591319446</c:v>
+                  <c:v>43996.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.867591319446</c:v>
+                  <c:v>43999.995463541665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17897,46 +17897,46 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>43959.867591319446</c:v>
+                  <c:v>43960.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43962.867591319446</c:v>
+                  <c:v>43963.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43965.867591319446</c:v>
+                  <c:v>43966.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43968.867591319446</c:v>
+                  <c:v>43969.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43971.867591319446</c:v>
+                  <c:v>43972.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43974.867591319446</c:v>
+                  <c:v>43975.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43977.867591319446</c:v>
+                  <c:v>43978.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43980.867591319446</c:v>
+                  <c:v>43981.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43983.867591319446</c:v>
+                  <c:v>43984.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43986.867591319446</c:v>
+                  <c:v>43987.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43989.867591319446</c:v>
+                  <c:v>43990.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43992.867591319446</c:v>
+                  <c:v>43993.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43995.867591319446</c:v>
+                  <c:v>43996.995463541665</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43998.867591319446</c:v>
+                  <c:v>43999.995463541665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -38539,7 +38539,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
@@ -39312,167 +39312,167 @@
       </c>
       <c r="B26" s="89">
         <f t="shared" ref="B26:G26" ca="1" si="0">C26-1</f>
-        <v>43959.867591319446</v>
+        <v>43960.995463541665</v>
       </c>
       <c r="C26" s="90">
         <f t="shared" ca="1" si="0"/>
-        <v>43960.867591319446</v>
+        <v>43961.995463541665</v>
       </c>
       <c r="D26" s="90">
         <f t="shared" ca="1" si="0"/>
-        <v>43961.867591319446</v>
+        <v>43962.995463541665</v>
       </c>
       <c r="E26" s="90">
         <f t="shared" ca="1" si="0"/>
-        <v>43962.867591319446</v>
+        <v>43963.995463541665</v>
       </c>
       <c r="F26" s="90">
         <f t="shared" ca="1" si="0"/>
-        <v>43963.867591319446</v>
+        <v>43964.995463541665</v>
       </c>
       <c r="G26" s="91">
         <f t="shared" ca="1" si="0"/>
-        <v>43964.867591319446</v>
+        <v>43965.995463541665</v>
       </c>
       <c r="H26" s="90">
         <f t="shared" ref="H26:U26" ca="1" si="1">I26-1</f>
-        <v>43965.867591319446</v>
+        <v>43966.995463541665</v>
       </c>
       <c r="I26" s="90">
         <f t="shared" ca="1" si="1"/>
-        <v>43966.867591319446</v>
+        <v>43967.995463541665</v>
       </c>
       <c r="J26" s="90">
         <f t="shared" ca="1" si="1"/>
-        <v>43967.867591319446</v>
+        <v>43968.995463541665</v>
       </c>
       <c r="K26" s="90">
         <f t="shared" ca="1" si="1"/>
-        <v>43968.867591319446</v>
+        <v>43969.995463541665</v>
       </c>
       <c r="L26" s="90">
         <f t="shared" ca="1" si="1"/>
-        <v>43969.867591319446</v>
+        <v>43970.995463541665</v>
       </c>
       <c r="M26" s="90">
         <f t="shared" ca="1" si="1"/>
-        <v>43970.867591319446</v>
+        <v>43971.995463541665</v>
       </c>
       <c r="N26" s="91">
         <f t="shared" ca="1" si="1"/>
-        <v>43971.867591319446</v>
+        <v>43972.995463541665</v>
       </c>
       <c r="O26" s="89">
         <f t="shared" ca="1" si="1"/>
-        <v>43972.867591319446</v>
+        <v>43973.995463541665</v>
       </c>
       <c r="P26" s="90">
         <f t="shared" ca="1" si="1"/>
-        <v>43973.867591319446</v>
+        <v>43974.995463541665</v>
       </c>
       <c r="Q26" s="90">
         <f t="shared" ca="1" si="1"/>
-        <v>43974.867591319446</v>
+        <v>43975.995463541665</v>
       </c>
       <c r="R26" s="90">
         <f t="shared" ca="1" si="1"/>
-        <v>43975.867591319446</v>
+        <v>43976.995463541665</v>
       </c>
       <c r="S26" s="90">
         <f t="shared" ca="1" si="1"/>
-        <v>43976.867591319446</v>
+        <v>43977.995463541665</v>
       </c>
       <c r="T26" s="90">
         <f t="shared" ca="1" si="1"/>
-        <v>43977.867591319446</v>
+        <v>43978.995463541665</v>
       </c>
       <c r="U26" s="91">
         <f t="shared" ca="1" si="1"/>
-        <v>43978.867591319446</v>
+        <v>43979.995463541665</v>
       </c>
       <c r="V26" s="89">
         <f t="shared" ref="V26:AN26" ca="1" si="2">W26-1</f>
-        <v>43979.867591319446</v>
+        <v>43980.995463541665</v>
       </c>
       <c r="W26" s="90">
         <f t="shared" ca="1" si="2"/>
-        <v>43980.867591319446</v>
+        <v>43981.995463541665</v>
       </c>
       <c r="X26" s="90">
         <f t="shared" ca="1" si="2"/>
-        <v>43981.867591319446</v>
+        <v>43982.995463541665</v>
       </c>
       <c r="Y26" s="90">
         <f t="shared" ca="1" si="2"/>
-        <v>43982.867591319446</v>
+        <v>43983.995463541665</v>
       </c>
       <c r="Z26" s="90">
         <f t="shared" ca="1" si="2"/>
-        <v>43983.867591319446</v>
+        <v>43984.995463541665</v>
       </c>
       <c r="AA26" s="90">
         <f t="shared" ca="1" si="2"/>
-        <v>43984.867591319446</v>
+        <v>43985.995463541665</v>
       </c>
       <c r="AB26" s="91">
         <f t="shared" ca="1" si="2"/>
-        <v>43985.867591319446</v>
+        <v>43986.995463541665</v>
       </c>
       <c r="AC26" s="89">
         <f t="shared" ca="1" si="2"/>
-        <v>43986.867591319446</v>
+        <v>43987.995463541665</v>
       </c>
       <c r="AD26" s="90">
         <f t="shared" ca="1" si="2"/>
-        <v>43987.867591319446</v>
+        <v>43988.995463541665</v>
       </c>
       <c r="AE26" s="90">
         <f t="shared" ca="1" si="2"/>
-        <v>43988.867591319446</v>
+        <v>43989.995463541665</v>
       </c>
       <c r="AF26" s="90">
         <f t="shared" ca="1" si="2"/>
-        <v>43989.867591319446</v>
+        <v>43990.995463541665</v>
       </c>
       <c r="AG26" s="90">
         <f t="shared" ca="1" si="2"/>
-        <v>43990.867591319446</v>
+        <v>43991.995463541665</v>
       </c>
       <c r="AH26" s="90">
         <f t="shared" ca="1" si="2"/>
-        <v>43991.867591319446</v>
+        <v>43992.995463541665</v>
       </c>
       <c r="AI26" s="91">
         <f t="shared" ca="1" si="2"/>
-        <v>43992.867591319446</v>
+        <v>43993.995463541665</v>
       </c>
       <c r="AJ26" s="89">
         <f t="shared" ca="1" si="2"/>
-        <v>43993.867591319446</v>
+        <v>43994.995463541665</v>
       </c>
       <c r="AK26" s="90">
         <f t="shared" ca="1" si="2"/>
-        <v>43994.867591319446</v>
+        <v>43995.995463541665</v>
       </c>
       <c r="AL26" s="90">
         <f t="shared" ca="1" si="2"/>
-        <v>43995.867591319446</v>
+        <v>43996.995463541665</v>
       </c>
       <c r="AM26" s="90">
         <f t="shared" ca="1" si="2"/>
-        <v>43996.867591319446</v>
+        <v>43997.995463541665</v>
       </c>
       <c r="AN26" s="90">
         <f t="shared" ca="1" si="2"/>
-        <v>43997.867591319446</v>
+        <v>43998.995463541665</v>
       </c>
       <c r="AO26" s="90">
         <f ca="1">AP26-1</f>
-        <v>43998.867591319446</v>
+        <v>43999.995463541665</v>
       </c>
       <c r="AP26" s="111">
         <f ca="1">NOW()</f>
-        <v>43999.867591319446</v>
+        <v>44000.995463541665</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.25">
@@ -39990,8 +39990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BB0FAD-39ED-4D53-8BC6-75164ED434B0}">
   <dimension ref="A1:BK367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V265" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AR291" sqref="AR291"/>
+    <sheetView tabSelected="1" topLeftCell="AA265" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AR294" sqref="AR294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40068,7 +40068,7 @@
         <v>42917</v>
       </c>
       <c r="F3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="4" spans="3:34" x14ac:dyDescent="0.25">
@@ -40082,7 +40082,7 @@
         <v>43132</v>
       </c>
       <c r="F4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="5" spans="3:34" x14ac:dyDescent="0.25">
@@ -40096,7 +40096,7 @@
         <v>43160</v>
       </c>
       <c r="F5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="6" spans="3:34" x14ac:dyDescent="0.25">
@@ -40138,7 +40138,7 @@
         <v>44177</v>
       </c>
       <c r="F8" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="9" spans="3:34" x14ac:dyDescent="0.25">
@@ -40302,7 +40302,7 @@
         <v>43839</v>
       </c>
       <c r="G16" s="69" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H16" s="69"/>
       <c r="I16" s="69"/>
@@ -40430,7 +40430,7 @@
         <v>43844</v>
       </c>
       <c r="G21" s="69" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H21" s="69"/>
       <c r="I21" s="69"/>
@@ -40452,7 +40452,7 @@
         <v>43844</v>
       </c>
       <c r="G22" s="69" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H22" s="69"/>
       <c r="I22" s="69"/>
@@ -40566,7 +40566,7 @@
         <v>43850</v>
       </c>
       <c r="G27" s="69" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H27" s="69"/>
       <c r="I27" s="69"/>
@@ -40617,7 +40617,7 @@
         <v>43853</v>
       </c>
       <c r="G30" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="31" spans="4:35" x14ac:dyDescent="0.25">
@@ -42710,7 +42710,7 @@
         <v>43906</v>
       </c>
       <c r="X110" s="165" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Y110" s="69"/>
       <c r="Z110" s="69"/>
@@ -43276,7 +43276,7 @@
         <v>43918</v>
       </c>
       <c r="AC127" s="69" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AD127" s="69"/>
       <c r="AE127" s="69"/>
@@ -43327,7 +43327,7 @@
         <v>43919</v>
       </c>
       <c r="AC129" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AD129" s="69"/>
       <c r="AE129" s="69"/>
@@ -43349,7 +43349,7 @@
         <v>43920</v>
       </c>
       <c r="AC130" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AD130" s="69"/>
       <c r="AE130" s="69"/>
@@ -43403,7 +43403,7 @@
         <v>43921</v>
       </c>
       <c r="AC133" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AD133" s="69"/>
       <c r="AE133" s="69"/>
@@ -43425,7 +43425,7 @@
         <v>43922</v>
       </c>
       <c r="AC134" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AD134" s="69"/>
       <c r="AE134" s="69"/>
@@ -43448,7 +43448,7 @@
         <v>43922</v>
       </c>
       <c r="AC135" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AD135" s="69"/>
       <c r="AE135" s="69"/>
@@ -43599,7 +43599,7 @@
         <v>43926</v>
       </c>
       <c r="AD139" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AH139" s="69"/>
       <c r="AI139" s="69"/>
@@ -43687,7 +43687,7 @@
         <v>43927</v>
       </c>
       <c r="AD141" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AH141" s="69"/>
       <c r="AI141" s="69"/>
@@ -43732,7 +43732,7 @@
         <v>43929</v>
       </c>
       <c r="AD142" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AH142" s="69"/>
       <c r="AI142" s="69"/>
@@ -43777,7 +43777,7 @@
         <v>43929</v>
       </c>
       <c r="AD143" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AH143" s="69"/>
       <c r="AI143" s="69"/>
@@ -43822,7 +43822,7 @@
         <v>43931</v>
       </c>
       <c r="AD144" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AH144" s="69"/>
       <c r="AI144" s="69"/>
@@ -43910,7 +43910,7 @@
         <v>43933</v>
       </c>
       <c r="AE146" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AH146" s="69"/>
       <c r="AI146" s="69"/>
@@ -44140,7 +44140,7 @@
         <v>43938</v>
       </c>
       <c r="AF154" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="BD154" s="69"/>
       <c r="BE154" s="69"/>
@@ -44205,7 +44205,7 @@
         <v>43939</v>
       </c>
       <c r="AF157" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AJ157" s="69"/>
       <c r="AK157" s="69"/>
@@ -44364,7 +44364,7 @@
         <v>43940</v>
       </c>
       <c r="AG160" s="47" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AJ160" s="69"/>
       <c r="AK160" s="69"/>
@@ -44467,7 +44467,7 @@
         <v>43941</v>
       </c>
       <c r="AG162" s="69" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AJ162" s="69"/>
       <c r="AK162" s="69"/>
@@ -44704,7 +44704,7 @@
         <v>43945</v>
       </c>
       <c r="AH171" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="172" spans="3:59" x14ac:dyDescent="0.25">
@@ -44869,7 +44869,7 @@
         <v>43949</v>
       </c>
       <c r="AI180" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AK180" s="69"/>
       <c r="AL180" s="69"/>
@@ -44917,7 +44917,7 @@
         <v>43950</v>
       </c>
       <c r="AI183" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="184" spans="3:59" x14ac:dyDescent="0.25">
@@ -44931,7 +44931,7 @@
         <v>43950</v>
       </c>
       <c r="AI184" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AU184" s="69"/>
       <c r="AV184" s="69"/>
@@ -45368,7 +45368,7 @@
         <v>43952</v>
       </c>
       <c r="AI192" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AJ192"/>
       <c r="AK192"/>
@@ -45435,7 +45435,7 @@
         <v>43954</v>
       </c>
       <c r="AI193" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AL193"/>
       <c r="AM193"/>
@@ -45500,7 +45500,7 @@
         <v>43955</v>
       </c>
       <c r="AI194" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AL194"/>
       <c r="AM194"/>
@@ -46227,7 +46227,7 @@
         <v>43962</v>
       </c>
       <c r="AJ213" s="69" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="214" spans="3:59" x14ac:dyDescent="0.25">
@@ -47306,7 +47306,7 @@
         <v>43973</v>
       </c>
       <c r="AK247" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AL247"/>
       <c r="AM247"/>
@@ -47775,7 +47775,7 @@
         <v>43977</v>
       </c>
       <c r="AK260" s="69" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="261" spans="3:59" x14ac:dyDescent="0.25">
@@ -47789,7 +47789,7 @@
         <v>43977</v>
       </c>
       <c r="AK261" s="47" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="262" spans="3:59" x14ac:dyDescent="0.25">
@@ -47831,7 +47831,7 @@
         <v>43978</v>
       </c>
       <c r="AK264" s="47" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="265" spans="3:59" x14ac:dyDescent="0.25">
@@ -47891,7 +47891,7 @@
         <v>43980</v>
       </c>
       <c r="AL266" s="47" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AM266" s="69"/>
       <c r="AN266" s="69"/>
@@ -47945,7 +47945,7 @@
         <v>43980</v>
       </c>
       <c r="AL267" s="69" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AM267" s="69"/>
       <c r="AN267" s="69"/>
@@ -47999,7 +47999,7 @@
         <v>43980</v>
       </c>
       <c r="AL268" s="69" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AM268" s="69"/>
       <c r="AN268" s="69"/>
@@ -48021,7 +48021,7 @@
         <v>43982</v>
       </c>
       <c r="AL269" s="69" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="270" spans="3:59" x14ac:dyDescent="0.25">
@@ -48035,7 +48035,7 @@
         <v>43983</v>
       </c>
       <c r="AL270" s="69" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="271" spans="3:59" x14ac:dyDescent="0.25">
@@ -48049,7 +48049,7 @@
         <v>43983</v>
       </c>
       <c r="AL271" s="69" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="272" spans="3:59" x14ac:dyDescent="0.25">
@@ -48063,7 +48063,7 @@
         <v>43984</v>
       </c>
       <c r="AL272" s="69" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="273" spans="1:41" x14ac:dyDescent="0.25">
@@ -48077,7 +48077,7 @@
         <v>43986</v>
       </c>
       <c r="AL273" s="69" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AM273" s="69"/>
       <c r="AN273" s="69"/>
@@ -48094,7 +48094,7 @@
         <v>43987</v>
       </c>
       <c r="AL274" s="69" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="275" spans="1:41" x14ac:dyDescent="0.25">
@@ -48108,7 +48108,7 @@
         <v>43987</v>
       </c>
       <c r="AL275" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="276" spans="1:41" s="69" customFormat="1" x14ac:dyDescent="0.25">
@@ -48122,7 +48122,7 @@
         <v>43987</v>
       </c>
       <c r="AL276" s="69" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AM276"/>
       <c r="AN276"/>
@@ -48139,7 +48139,7 @@
         <v>43989</v>
       </c>
       <c r="AL277" s="69" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AM277"/>
       <c r="AN277"/>
@@ -48156,7 +48156,7 @@
         <v>43990</v>
       </c>
       <c r="AL278" s="69" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AM278"/>
       <c r="AN278"/>
@@ -48173,7 +48173,7 @@
         <v>43991</v>
       </c>
       <c r="AM279" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="280" spans="1:41" x14ac:dyDescent="0.25">
@@ -48187,7 +48187,7 @@
         <v>43993</v>
       </c>
       <c r="AM280" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="281" spans="1:41" x14ac:dyDescent="0.25">
@@ -48207,7 +48207,7 @@
         <v>43993</v>
       </c>
       <c r="AM281" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="282" spans="1:41" x14ac:dyDescent="0.25">
@@ -48223,7 +48223,7 @@
         <v>43994</v>
       </c>
       <c r="AM282" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="283" spans="1:41" x14ac:dyDescent="0.25">
@@ -48239,7 +48239,7 @@
         <v>43994</v>
       </c>
       <c r="AM283" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="284" spans="1:41" x14ac:dyDescent="0.25">
@@ -48259,7 +48259,7 @@
         <v>43995</v>
       </c>
       <c r="AM284" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="285" spans="1:41" s="69" customFormat="1" x14ac:dyDescent="0.25">
@@ -48269,16 +48269,16 @@
         <v>299</v>
       </c>
       <c r="AJ285" s="298">
-        <v>2208400</v>
+        <v>2182950</v>
       </c>
       <c r="AK285" s="297">
-        <v>119132</v>
+        <v>118283</v>
       </c>
       <c r="AL285" s="165">
-        <v>43998</v>
+        <v>43997</v>
       </c>
       <c r="AM285" s="69" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="286" spans="1:41" x14ac:dyDescent="0.25">
@@ -48317,11 +48317,11 @@
       <c r="AK286" s="297">
         <v>119132</v>
       </c>
-      <c r="AL286" s="217">
+      <c r="AL286" s="165">
         <v>43998</v>
       </c>
-      <c r="AM286" s="47" t="s">
-        <v>574</v>
+      <c r="AM286" s="69" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="287" spans="1:41" x14ac:dyDescent="0.25">
@@ -48354,6 +48354,18 @@
       <c r="W287" s="69"/>
       <c r="X287" s="16"/>
       <c r="Y287" s="16"/>
+      <c r="AJ287" s="298">
+        <v>2208400</v>
+      </c>
+      <c r="AK287" s="297">
+        <v>119132</v>
+      </c>
+      <c r="AL287" s="217">
+        <v>43998</v>
+      </c>
+      <c r="AM287" s="47" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="288" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
@@ -53657,7 +53669,7 @@
         <v>788862</v>
       </c>
       <c r="AM326" s="343">
-        <v>903136</v>
+        <v>918796</v>
       </c>
       <c r="AN326" s="185"/>
       <c r="AO326" s="185"/>
@@ -53769,7 +53781,7 @@
         <v>114148</v>
       </c>
       <c r="AM327" s="344">
-        <v>119133</v>
+        <v>119952</v>
       </c>
       <c r="AN327" s="186"/>
       <c r="AO327" s="186"/>
@@ -60983,7 +60995,7 @@
         <v>116</v>
       </c>
       <c r="C6" s="163">
-        <v>2208400</v>
+        <v>2235215</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -60992,7 +61004,7 @@
       </c>
       <c r="C7" s="161">
         <f ca="1">NOW()</f>
-        <v>43999.867591319446</v>
+        <v>44000.995463541665</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -61001,7 +61013,7 @@
       </c>
       <c r="C8" s="162">
         <f ca="1">C7-C5</f>
-        <v>117.86759131944564</v>
+        <v>118.99546354166523</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -61010,7 +61022,7 @@
       </c>
       <c r="C9" s="164">
         <f ca="1">C8/(LOG(C6/C4)/LOG(2))</f>
-        <v>7.3169755218917016</v>
+        <v>7.3790154590414687</v>
       </c>
       <c r="D9" t="s">
         <v>97</v>
@@ -61043,7 +61055,7 @@
       </c>
       <c r="C12" s="169">
         <f>C6/Projections!B286</f>
-        <v>8833600</v>
+        <v>8940860</v>
       </c>
     </row>
     <row r="13" spans="2:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
@@ -61052,7 +61064,7 @@
       </c>
       <c r="C13" s="170">
         <f ca="1">(C4/Projections!B286)*(2^(((C7-21)-C5)/C9))</f>
-        <v>1208287.026087228</v>
+        <v>1243585.3180046591</v>
       </c>
     </row>
     <row r="14" spans="2:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
@@ -61061,7 +61073,7 @@
       </c>
       <c r="C14" s="151">
         <f ca="1">C12-C13</f>
-        <v>7625312.9739127718</v>
+        <v>7697274.6819953406</v>
       </c>
       <c r="E14" s="166"/>
       <c r="F14" s="167" t="s">
@@ -61075,7 +61087,7 @@
       </c>
       <c r="C15" s="64">
         <f>C6*Projections!B291</f>
-        <v>1788804.0000000002</v>
+        <v>1810524.1500000001</v>
       </c>
       <c r="I15" s="160"/>
     </row>
@@ -61085,7 +61097,7 @@
       </c>
       <c r="C16" s="83">
         <f ca="1">(C4*Projections!B291)*(2^(((C7-21)-C5)/C9))</f>
-        <v>244678.12278266368</v>
+        <v>251826.02689594345</v>
       </c>
       <c r="I16" s="160"/>
     </row>
@@ -61095,7 +61107,7 @@
       </c>
       <c r="C17" s="83">
         <f ca="1">C15-C16</f>
-        <v>1544125.8772173366</v>
+        <v>1558698.1231040568</v>
       </c>
       <c r="F17" t="s">
         <v>140</v>
@@ -61108,7 +61120,7 @@
       </c>
       <c r="C18" s="64">
         <f>C6*Projections!B292</f>
-        <v>309176.00000000006</v>
+        <v>312930.10000000003</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -61117,7 +61129,7 @@
       </c>
       <c r="C19" s="83">
         <f ca="1">(C4*Projections!B292)*(2^(((C7-49)-C5)/C9))</f>
-        <v>2980.4465192881985</v>
+        <v>3136.6930310885127</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -61126,7 +61138,7 @@
       </c>
       <c r="C20" s="83">
         <f ca="1">C18-C19</f>
-        <v>306195.55348071188</v>
+        <v>309793.40696891153</v>
       </c>
       <c r="F20" t="s">
         <v>145</v>
@@ -61138,7 +61150,7 @@
       </c>
       <c r="C21" s="64">
         <f>C6*Projections!B293</f>
-        <v>110420</v>
+        <v>111760.75</v>
       </c>
       <c r="I21" s="160"/>
     </row>
@@ -61148,7 +61160,7 @@
       </c>
       <c r="C22" s="83">
         <f ca="1">(C4*Projections!B293)*(2^(((C7-49)-C5)/C9))</f>
-        <v>1064.4451854600709</v>
+        <v>1120.2475111030403</v>
       </c>
       <c r="I22" s="160"/>
     </row>
@@ -61158,7 +61170,7 @@
       </c>
       <c r="C23" s="83">
         <f ca="1">C21-C22</f>
-        <v>109355.55481453992</v>
+        <v>110640.50248889696</v>
       </c>
       <c r="I23" s="160"/>
     </row>
@@ -61168,7 +61180,7 @@
       </c>
       <c r="C24" s="64">
         <f>C6*Projections!B294</f>
-        <v>123670.40000000001</v>
+        <v>125172.04000000001</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -61177,7 +61189,7 @@
       </c>
       <c r="C25" s="61">
         <f ca="1">(C4*Projections!B294)*(2^(((C7-42)-C5)/C9))</f>
-        <v>2313.8251136286526</v>
+        <v>2421.5860895030828</v>
       </c>
       <c r="F25" t="s">
         <v>151</v>
@@ -61189,7 +61201,7 @@
       </c>
       <c r="C26" s="173">
         <f ca="1">C9*(LOG(C10/C21)/LOG(2))</f>
-        <v>20.816568993706746</v>
+        <v>20.864586531368683</v>
       </c>
       <c r="D26" t="s">
         <v>97</v>
@@ -61204,7 +61216,7 @@
       </c>
       <c r="C27" s="172">
         <f ca="1">C7+C26</f>
-        <v>44020.684160313154</v>
+        <v>44021.860050073032</v>
       </c>
       <c r="F27" t="s">
         <v>153</v>
@@ -61216,7 +61228,7 @@
       </c>
       <c r="C28" s="171">
         <f ca="1">C9*(LOG(C11/C21)/LOG(2))</f>
-        <v>0.40201091524261862</v>
+        <v>0.27693536323398132</v>
       </c>
       <c r="D28" t="s">
         <v>97</v>
@@ -61228,7 +61240,7 @@
       </c>
       <c r="C29" s="172">
         <f ca="1">C7+C28</f>
-        <v>44000.269602234686</v>
+        <v>44001.272398904897</v>
       </c>
       <c r="F29" t="s">
         <v>153</v>
@@ -61240,7 +61252,7 @@
       </c>
       <c r="C30" s="171">
         <f ca="1">C9*(LOG((C3*0.6)/C12)/LOG(2))</f>
-        <v>32.84462449579857</v>
+        <v>32.994626768157381</v>
       </c>
       <c r="D30" t="s">
         <v>97</v>
@@ -61252,7 +61264,7 @@
       </c>
       <c r="C31" s="172">
         <f ca="1">C7+C30</f>
-        <v>44032.712215815242</v>
+        <v>44033.990090309824</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -61261,7 +61273,7 @@
       </c>
       <c r="C34" s="161">
         <f ca="1">C7+30</f>
-        <v>44029.867591319446</v>
+        <v>44030.995463541665</v>
       </c>
       <c r="F34" t="s">
         <v>166</v>
@@ -61273,7 +61285,7 @@
       </c>
       <c r="C35" s="83">
         <f ca="1">C6*(2^((C34-C7)/C9))</f>
-        <v>37871908.56308493</v>
+        <v>37426717.918468781</v>
       </c>
       <c r="F35" t="s">
         <v>138</v>
@@ -61285,7 +61297,7 @@
       </c>
       <c r="C36" s="83">
         <f ca="1">C35/Projections!B286</f>
-        <v>151487634.25233972</v>
+        <v>149706871.67387512</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -61294,7 +61306,7 @@
       </c>
       <c r="C37" s="83">
         <f ca="1">C35*Projections!B291</f>
-        <v>30676245.936098795</v>
+        <v>30315641.513959713</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -61303,7 +61315,7 @@
       </c>
       <c r="C38" s="83">
         <f ca="1">C35*Projections!B292</f>
-        <v>5302067.1988318907</v>
+        <v>5239740.50858563</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -61312,7 +61324,7 @@
       </c>
       <c r="C39" s="83">
         <f ca="1">C35*Projections!B293</f>
-        <v>1893595.4281542466</v>
+        <v>1871335.8959234392</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -61321,7 +61333,7 @@
       </c>
       <c r="C40" s="61">
         <f ca="1">C35*Projections!B294</f>
-        <v>2120826.8795327563</v>
+        <v>2095896.2034342517</v>
       </c>
     </row>
   </sheetData>
@@ -62147,7 +62159,7 @@
   <dimension ref="A1:AE68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -62185,7 +62197,7 @@
         <v>432</v>
       </c>
       <c r="C2" s="322" t="s">
-        <v>501</v>
+        <v>433</v>
       </c>
       <c r="D2" s="322" t="s">
         <v>455</v>
@@ -62223,7 +62235,7 @@
     </row>
     <row r="3" spans="1:20" s="323" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="339" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B3" s="316">
         <v>10000000</v>
@@ -62239,7 +62251,7 @@
       <c r="G3" s="339"/>
       <c r="H3" s="339"/>
       <c r="I3" s="340" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="O3" s="337"/>
       <c r="P3" s="336"/>
@@ -62273,22 +62285,22 @@
       </c>
       <c r="P4" s="257">
         <f ca="1">NOW()</f>
-        <v>43999.867591319446</v>
+        <v>44000.995463425927</v>
       </c>
       <c r="Q4" s="136">
         <f ca="1">P4-O4</f>
-        <v>109.86759131944564</v>
+        <v>110.99546342592657</v>
       </c>
       <c r="R4" s="320">
-        <v>119132</v>
+        <v>119952</v>
       </c>
       <c r="S4" s="10">
         <f ca="1">R4/Q4</f>
-        <v>1084.3233984589469</v>
+        <v>1080.6928166037221</v>
       </c>
       <c r="T4" s="83">
         <f ca="1">("31/12/2020"-O4)*S4</f>
-        <v>331802.95992843778</v>
+        <v>330692.00188073894</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -62317,10 +62329,10 @@
       <c r="Q5" s="16"/>
       <c r="R5" s="14">
         <f>R4/Projections!B281</f>
-        <v>3.60388485791772E-4</v>
+        <v>3.6286908343429667E-4</v>
       </c>
       <c r="S5" s="16" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="T5" s="17"/>
     </row>
@@ -62400,7 +62412,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="92" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B8" s="314">
         <v>39457</v>
@@ -62426,7 +62438,7 @@
         <v>135</v>
       </c>
       <c r="I8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="O8" s="37"/>
       <c r="P8" s="39"/>
@@ -62544,7 +62556,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="92" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B13" s="314">
         <v>6000</v>
@@ -62676,7 +62688,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="92" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B18" s="314">
         <v>1146</v>
@@ -62702,12 +62714,12 @@
         <v>5</v>
       </c>
       <c r="I18" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="92" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B19" s="314">
         <v>417</v>
@@ -62733,7 +62745,7 @@
         <v>5</v>
       </c>
       <c r="I19" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -62743,7 +62755,10 @@
       <c r="B20" s="314">
         <v>294</v>
       </c>
-      <c r="C20" s="307"/>
+      <c r="C20" s="333">
+        <f>B20/248709900</f>
+        <v>1.1821001094045713E-6</v>
+      </c>
       <c r="D20" s="274">
         <f>B20/210</f>
         <v>1.4</v>
@@ -62884,7 +62899,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="335" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B27" s="314">
         <v>38000</v>
@@ -63202,7 +63217,7 @@
         <v>354</v>
       </c>
       <c r="I39" s="310" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N39"/>
       <c r="O39"/>
@@ -63239,7 +63254,7 @@
         <v>303</v>
       </c>
       <c r="I40" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="Q40" s="293"/>
     </row>
@@ -63361,7 +63376,7 @@
         <v>50</v>
       </c>
       <c r="I44" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
